--- a/biology/Zoologie/Irish_wolfhound/Irish_wolfhound.xlsx
+++ b/biology/Zoologie/Irish_wolfhound/Irish_wolfhound.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Irish wolfhound ou lévrier irlandais (en irlandais « cú faoil » /ˌkuː ˈfˠiːlʲ/ [1] [2]), est le plus rustique et le plus grand des lévriers. La Fédération cynologique internationale répertorie la race dans le groupe 10, section 2, lévriers à poil dur, standard no 160. Le lévrier irlandais est historiquement utilisé pour chasser le loup — qui est entièrement éradiqué d'Irlande en 1786 — et les cervidés jusqu'au XVIIe siècle, avant de devenir principalement un chien d'agrément.
+L'Irish wolfhound ou lévrier irlandais (en irlandais « cú faoil » /ˌkuː ˈfˠiːlʲ/  ), est le plus rustique et le plus grand des lévriers. La Fédération cynologique internationale répertorie la race dans le groupe 10, section 2, lévriers à poil dur, standard no 160. Le lévrier irlandais est historiquement utilisé pour chasser le loup — qui est entièrement éradiqué d'Irlande en 1786 — et les cervidés jusqu'au XVIIe siècle, avant de devenir principalement un chien d'agrément.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est, avec le dogue allemand, la plus grande race de chien au monde. Le lévrier irlandais a un corps allongé et imposant, avec une musculature massive, ainsi qu'une croupe et un dos larges. Les pattes sont longues, droites et à l'ossature forte.
 Le lévrier irlandais ne doit pas être tout à fait aussi lourd ni aussi massif que le dogue allemand, mais il l'est plus que le lévrier écossais (deerhound) à qui il doit ressembler quant au type général.
@@ -545,12 +559,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine de l'Irish Wolfhound est mal connue[1]. La version ancienne du lévrier irlandais est cependant différente de la moderne[2].
-Son existence est rapportée chez les Celtes d'Irlande, qu'il suit dans leurs déplacements. Des mythes et des légendes celtes font référence au lévrier irlandais[3]. La première occurrence historique de la race est rapportée en 391 av. J.-C., lorsque le consul romain Quintus Aurelius fait référence à un cadeau de « sept chiens irlandais »[3], présents de son frère destinés à combattre dans les arènes contre des ours et des lions[réf. nécessaire].
-Le lévrier irlandais est alors utilisé pour la chasse, la garde, la guerre et les jeux[3]. La race est employée pour chasser les loups et les cervidés jusqu'au XVIIe siècle[4]. Sa possession est réservée aux rois et à la noblesse, et il est également utilisé comme cadeau de marque[3]. Son exportation est cependant interdite par Oliver Cromwell en 1652[3].
-Après la disparition totale en Irlande des loups survenue en 1786, les effectifs du lévrier irlandais diminuent jusqu'à ce qu'il soit presque éteint en 1840. À partir de 1862, le capitaine George Augustus Graham rassemble plusieurs individus de la race et relance celle-ci par des croisements avec des deerhounds, des barzoïs et des danois[2] ainsi que des dogues du Tibet[3]. L'aspect physique de la race est ainsi retrouvée[2]. En 1879, la race participe à son premier concours canin[3] et un club de race est créé en 1886 par Graham[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine de l'Irish Wolfhound est mal connue. La version ancienne du lévrier irlandais est cependant différente de la moderne.
+Son existence est rapportée chez les Celtes d'Irlande, qu'il suit dans leurs déplacements. Des mythes et des légendes celtes font référence au lévrier irlandais. La première occurrence historique de la race est rapportée en 391 av. J.-C., lorsque le consul romain Quintus Aurelius fait référence à un cadeau de « sept chiens irlandais », présents de son frère destinés à combattre dans les arènes contre des ours et des lions[réf. nécessaire].
+Le lévrier irlandais est alors utilisé pour la chasse, la garde, la guerre et les jeux. La race est employée pour chasser les loups et les cervidés jusqu'au XVIIe siècle. Sa possession est réservée aux rois et à la noblesse, et il est également utilisé comme cadeau de marque. Son exportation est cependant interdite par Oliver Cromwell en 1652.
+Après la disparition totale en Irlande des loups survenue en 1786, les effectifs du lévrier irlandais diminuent jusqu'à ce qu'il soit presque éteint en 1840. À partir de 1862, le capitaine George Augustus Graham rassemble plusieurs individus de la race et relance celle-ci par des croisements avec des deerhounds, des barzoïs et des danois ainsi que des dogues du Tibet. L'aspect physique de la race est ainsi retrouvée. En 1879, la race participe à son premier concours canin et un club de race est créé en 1886 par Graham.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chien de garde efficace et dissuasif, il a besoin d'une éducation ferme mais sans brutalité. Bien que ce soit un lévrier et donc un chien de chasse, il est utilisé principalement pour l'agrément et la garde.
 Ce chien a besoin de beaucoup d'espace et de courir fréquemment en toute liberté.
@@ -588,7 +606,7 @@
 L'alimentation du Wolfhound doit faire l'objet d'une grande attention, surtout lors de sa croissance qui peut se poursuivre jusqu'à ses 15 mois. Il ne sera mature et réellement « fini » que vers l'âge de 3/4 ans.
 Affectueux et loyal, cet énorme chien aime la compagnie des humains. En dépit de son gabarit impressionnant, il affiche  un caractère paisible et est très doux avec les enfants.
 Seule ombre au tableau : il a besoin de beaucoup d'espace et n'est guère adapté à la vie citadine (sauf si promené régulièrement)
-Enfin, son instinct de chasseur peut le pousser à fuguer[6] afin de poursuivre de petits animaux qui circulent dans le quartier. Il est nécessaire de bien clôturer son terrain ou de l'attacher lorsqu'il se trouve à l'extérieur si son rappel n'est pas assez travaillé.
+Enfin, son instinct de chasseur peut le pousser à fuguer afin de poursuivre de petits animaux qui circulent dans le quartier. Il est nécessaire de bien clôturer son terrain ou de l'attacher lorsqu'il se trouve à l'extérieur si son rappel n'est pas assez travaillé.
 </t>
         </is>
       </c>
@@ -617,10 +635,12 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les grandes races de chiens ont tendance à avoir une espérance de vie moins élevée que les autres races. Les estimations d'espérance de vie sont variables suivant les études mais s'élèvent en moyenne à une longévité comprise entre 4,95 et 8,75 ans[7].
-La race est prédisposée à certaines affections, principalement la cardiomyopathie dilatée, le shunt hépatique, l'ostéosarcome, la torsion-dilatation de l'estomac, l'ostéochondrite dissécante. D'autres pathologies sont également rapportées, comme l'épilepsie, la maladie de Willebrand et l'atrophie rétinienne progressive[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les grandes races de chiens ont tendance à avoir une espérance de vie moins élevée que les autres races. Les estimations d'espérance de vie sont variables suivant les études mais s'élèvent en moyenne à une longévité comprise entre 4,95 et 8,75 ans.
+La race est prédisposée à certaines affections, principalement la cardiomyopathie dilatée, le shunt hépatique, l'ostéosarcome, la torsion-dilatation de l'estomac, l'ostéochondrite dissécante. D'autres pathologies sont également rapportées, comme l'épilepsie, la maladie de Willebrand et l'atrophie rétinienne progressive.
 La race n'est toutefois pas véritablement fragile, mais sa taille et son poids engendrent un vieillissement prématuré, ceci étant le plus marqué chez les lignées les plus lourdes[réf. nécessaire].
 </t>
         </is>
@@ -650,7 +670,9 @@
           <t>Sports</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Épreuves de courses sur cynodromes ou racing.
 La poursuite à vue sur leurre (PVL) ou coursing.</t>
@@ -681,7 +703,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Illustration de 1919 issue de The book of dogs.
